--- a/biology/Zoologie/Elachistocleis_carvalhoi/Elachistocleis_carvalhoi.xlsx
+++ b/biology/Zoologie/Elachistocleis_carvalhoi/Elachistocleis_carvalhoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis carvalhoi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis carvalhoi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans le nord-ouest du Tocantins et dans le sud-est du Pará [1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans le nord-ouest du Tocantins et dans le sud-est du Pará ,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Antenor Leitão de Carvalho[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Antenor Leitão de Carvalho.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Caramaschi, 2010 : Notes on the taxonomic status of Elachistocleis ovalis (Schneider, 1799) and description of five new species of Elachistocleis Parker, 1927 (Amphibia, Anura, Microhylidae). Boletim do Museu Nacional Nova Serie Rio de Janeiro, Brasil, vol. 527, p. 1-30.</t>
         </is>
